--- a/data/magento/magento.xlsx
+++ b/data/magento/magento.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="magentoFile" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
